--- a/xls/subject_date_visualizations.xlsx
+++ b/xls/subject_date_visualizations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Table 1</t>
   </si>
@@ -324,7 +324,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27</c:v>
@@ -333,7 +333,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +585,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -610,12 +610,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316937888"/>
-        <c:axId val="316938448"/>
+        <c:axId val="342223568"/>
+        <c:axId val="342468160"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316937888"/>
+        <c:axId val="342223568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316938448"/>
+        <c:crossAx val="342468160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,7 +666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316938448"/>
+        <c:axId val="342468160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -718,7 +718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316937888"/>
+        <c:crossAx val="342223568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -986,8 +986,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316941808"/>
-        <c:axId val="316942368"/>
+        <c:axId val="342471520"/>
+        <c:axId val="342244784"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1101,7 +1101,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316941808"/>
+        <c:axId val="342471520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316942368"/>
+        <c:crossAx val="342244784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316942368"/>
+        <c:axId val="342244784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316941808"/>
+        <c:crossAx val="342471520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,8 +1463,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316366288"/>
-        <c:axId val="316366848"/>
+        <c:axId val="342248144"/>
+        <c:axId val="342289856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1575,7 +1575,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316366288"/>
+        <c:axId val="342248144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316366848"/>
+        <c:crossAx val="342289856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,7 +1626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316366848"/>
+        <c:axId val="342289856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316366288"/>
+        <c:crossAx val="342248144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1935,7 +1935,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1960,8 +1960,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316370208"/>
-        <c:axId val="316370768"/>
+        <c:axId val="342293216"/>
+        <c:axId val="342772416"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2052,7 +2052,7 @@
                         <c:v>4.1666666666666664E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.54166666666666663</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0.41666666666666669</c:v>
@@ -2072,7 +2072,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316370208"/>
+        <c:axId val="342293216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316370768"/>
+        <c:crossAx val="342772416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316370768"/>
+        <c:axId val="342772416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316370208"/>
+        <c:crossAx val="342293216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4818,7 +4818,7 @@
   <dimension ref="A2:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,7 +4855,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>3.0927835051546393E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4866,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>5.1546391752577317E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4874,10 +4874,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
-        <v>0.60824742268041232</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="1">
-        <v>0.27835051546391754</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4910,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>3.0927835051546393E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -5155,10 +5155,10 @@
         <v>8</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5195,14 +5195,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
       <c r="B59">
         <v>24</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>0.95833333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/xls/subject_date_visualizations.xlsx
+++ b/xls/subject_date_visualizations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Table 1</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>2010 data</t>
+  </si>
+  <si>
+    <t>Cited in 1950</t>
+  </si>
+  <si>
+    <t>Cited in 1980</t>
+  </si>
+  <si>
+    <t>Cited in 2010</t>
   </si>
 </sst>
 </file>
@@ -280,9 +289,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$5:$A$8,Sheet1!$A$10:$A$11)</c:f>
+              <c:f>(Sheet1!$A$5:$A$8,Sheet1!$A$10)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1600-1699</c:v>
                 </c:pt>
@@ -297,9 +306,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>No Period Listed</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -313,10 +319,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$5:$B$8,Sheet1!$B$10:$B$11)</c:f>
+              <c:f>(Sheet1!$B$5:$B$8,Sheet1!$B$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -331,9 +337,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,7 +368,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="6"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
                 <c:v>1600-1699</c:v>
               </c:pt>
@@ -380,9 +383,6 @@
               </c:pt>
               <c:pt idx="4">
                 <c:v>No Period Listed</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Total</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -400,10 +400,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$22:$B$25,Sheet1!$B$27:$B$28)</c:f>
+              <c:f>(Sheet1!$B$22:$B$25,Sheet1!$B$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -418,9 +418,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,7 +449,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="6"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
                 <c:v>1600-1699</c:v>
               </c:pt>
@@ -467,9 +464,6 @@
               </c:pt>
               <c:pt idx="4">
                 <c:v>No Period Listed</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Total</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -487,10 +481,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$37:$B$40,Sheet1!$B$42:$B$43)</c:f>
+              <c:f>(Sheet1!$B$37:$B$40,Sheet1!$B$42)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -505,9 +499,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,7 +530,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="6"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
                 <c:v>1600-1699</c:v>
               </c:pt>
@@ -554,9 +545,6 @@
               </c:pt>
               <c:pt idx="4">
                 <c:v>No Period Listed</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>Total</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -574,10 +562,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$53:$B$56,Sheet1!$B$58:$B$59)</c:f>
+              <c:f>(Sheet1!$B$53:$B$56,Sheet1!$B$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -592,9 +580,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,12 +595,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="342223568"/>
-        <c:axId val="342468160"/>
+        <c:axId val="337612816"/>
+        <c:axId val="337611696"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342223568"/>
+        <c:axId val="337612816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342468160"/>
+        <c:crossAx val="337611696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,7 +651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342468160"/>
+        <c:axId val="337611696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -718,7 +703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342223568"/>
+        <c:crossAx val="337612816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -986,8 +971,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="342471520"/>
-        <c:axId val="342244784"/>
+        <c:axId val="337932528"/>
+        <c:axId val="337930848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1101,7 +1086,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342471520"/>
+        <c:axId val="337932528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342244784"/>
+        <c:crossAx val="337930848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342244784"/>
+        <c:axId val="337930848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342471520"/>
+        <c:crossAx val="337932528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,8 +1448,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="342248144"/>
-        <c:axId val="342289856"/>
+        <c:axId val="269692464"/>
+        <c:axId val="269691344"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1575,7 +1560,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342248144"/>
+        <c:axId val="269692464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342289856"/>
+        <c:crossAx val="269691344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,7 +1611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342289856"/>
+        <c:axId val="269691344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342248144"/>
+        <c:crossAx val="269692464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1960,8 +1945,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="342293216"/>
-        <c:axId val="342772416"/>
+        <c:axId val="435453360"/>
+        <c:axId val="435453920"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2072,7 +2057,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342293216"/>
+        <c:axId val="435453360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342772416"/>
+        <c:crossAx val="435453920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +2108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342772416"/>
+        <c:axId val="435453920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2159,641 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342293216"/>
+        <c:crossAx val="435453360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Subject Period by Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1600-1699</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1700-1799</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$68:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1800-1899</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$68:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1900-1999</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$68:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000-2099</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$68:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Period Listed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$68:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="183654208"/>
+        <c:axId val="183658688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="183654208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183658688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="183658688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183654208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2415,6 +3034,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3925,6 +4584,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4549,6 +5711,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4815,10 +6007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C59"/>
+  <dimension ref="A2:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,6 +6394,133 @@
         <v>0.95833333333333326</v>
       </c>
     </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>29</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>SUM(B68:G68)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69:H70" si="0">SUM(B69:G69)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>SUM(B68:B70)</f>
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:G71" si="1">SUM(C68:C70)</f>
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/xls/subject_date_visualizations.xlsx
+++ b/xls/subject_date_visualizations.xlsx
@@ -595,12 +595,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="337612816"/>
-        <c:axId val="337611696"/>
+        <c:axId val="181271600"/>
+        <c:axId val="181274400"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337612816"/>
+        <c:axId val="181271600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337611696"/>
+        <c:crossAx val="181274400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -651,7 +651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337611696"/>
+        <c:axId val="181274400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -703,7 +703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337612816"/>
+        <c:crossAx val="181271600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,8 +971,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="337932528"/>
-        <c:axId val="337930848"/>
+        <c:axId val="177839408"/>
+        <c:axId val="176161744"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1086,7 +1086,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337932528"/>
+        <c:axId val="177839408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337930848"/>
+        <c:crossAx val="176161744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1137,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337930848"/>
+        <c:axId val="176161744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337932528"/>
+        <c:crossAx val="177839408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1448,8 +1448,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269692464"/>
-        <c:axId val="269691344"/>
+        <c:axId val="330676112"/>
+        <c:axId val="330676672"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1560,7 +1560,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269692464"/>
+        <c:axId val="330676112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269691344"/>
+        <c:crossAx val="330676672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1611,7 +1611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269691344"/>
+        <c:axId val="330676672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269692464"/>
+        <c:crossAx val="330676112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1945,8 +1945,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="435453360"/>
-        <c:axId val="435453920"/>
+        <c:axId val="330680032"/>
+        <c:axId val="330680592"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2057,7 +2057,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="435453360"/>
+        <c:axId val="330680032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435453920"/>
+        <c:crossAx val="330680592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2108,7 +2108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435453920"/>
+        <c:axId val="330680592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435453360"/>
+        <c:crossAx val="330680032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2687,11 +2687,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="183654208"/>
-        <c:axId val="183658688"/>
+        <c:axId val="260902736"/>
+        <c:axId val="260903296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183654208"/>
+        <c:axId val="260902736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,7 +2734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183658688"/>
+        <c:crossAx val="260903296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2742,7 +2742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183658688"/>
+        <c:axId val="260903296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183654208"/>
+        <c:crossAx val="260902736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6009,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/subject_date_visualizations.xlsx
+++ b/xls/subject_date_visualizations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Table 1</t>
   </si>
@@ -595,12 +595,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="181271600"/>
-        <c:axId val="181274400"/>
+        <c:axId val="238299520"/>
+        <c:axId val="238300080"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181271600"/>
+        <c:axId val="238299520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181274400"/>
+        <c:crossAx val="238300080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -651,7 +651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181274400"/>
+        <c:axId val="238300080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -703,7 +703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181271600"/>
+        <c:crossAx val="238299520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -717,7 +717,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -829,7 +828,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -971,8 +969,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="177839408"/>
-        <c:axId val="176161744"/>
+        <c:axId val="316001200"/>
+        <c:axId val="316001760"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1086,7 +1084,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="177839408"/>
+        <c:axId val="316001200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176161744"/>
+        <c:crossAx val="316001760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1137,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176161744"/>
+        <c:axId val="316001760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177839408"/>
+        <c:crossAx val="316001200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1202,7 +1200,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1309,7 +1306,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1448,8 +1444,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330676112"/>
-        <c:axId val="330676672"/>
+        <c:axId val="316005120"/>
+        <c:axId val="316005680"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1560,7 +1556,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330676112"/>
+        <c:axId val="316005120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330676672"/>
+        <c:crossAx val="316005680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1611,7 +1607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330676672"/>
+        <c:axId val="316005680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330676112"/>
+        <c:crossAx val="316005120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,7 +1672,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1945,8 +1940,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330680032"/>
-        <c:axId val="330680592"/>
+        <c:axId val="316009040"/>
+        <c:axId val="316009600"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2057,7 +2052,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330680032"/>
+        <c:axId val="316009040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330680592"/>
+        <c:crossAx val="316009600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2108,7 +2103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330680592"/>
+        <c:axId val="316009600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330680032"/>
+        <c:crossAx val="316009040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,7 +2270,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Subject Period by Year</a:t>
+              <a:t>Fig. 4: Subject Period by Year</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2687,11 +2682,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="260902736"/>
-        <c:axId val="260903296"/>
+        <c:axId val="316015200"/>
+        <c:axId val="316015760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="260902736"/>
+        <c:axId val="316015200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,7 +2729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260903296"/>
+        <c:crossAx val="316015760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2742,7 +2737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260903296"/>
+        <c:axId val="316015760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260902736"/>
+        <c:crossAx val="316015200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6009,8 +6004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H71" sqref="A67:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6496,6 +6491,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
       <c r="B71">
         <f>SUM(B68:B70)</f>
         <v>3</v>
@@ -6519,6 +6517,10 @@
       <c r="G71">
         <f t="shared" si="1"/>
         <v>3</v>
+      </c>
+      <c r="H71">
+        <f>SUM(H68:H70)</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
